--- a/11-CollaborationList/RHUL.xlsx
+++ b/11-CollaborationList/RHUL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/2025-11-Refresh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA5655D-ED6B-384A-A252-CEA93041F400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402AE5CD-6DBA-EE4F-9CF7-A61F16015863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="60" windowWidth="28040" windowHeight="17440" xr2:uid="{B041FEAE-BE1E-B04B-A3B2-E9C9448B7A33}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{B041FEAE-BE1E-B04B-A3B2-E9C9448B7A33}"/>
   </bookViews>
   <sheets>
     <sheet name="JohnAdamsInstitute" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>Title</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>The John Adams Institute for Accelerator Science, Royal Holloway University of London</t>
+  </si>
+  <si>
+    <t>0000-0002-4825-0303</t>
   </si>
 </sst>
 </file>
@@ -1034,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A38D86E-A0CA-AC4E-9E28-0478CB9EC53A}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1187,6 +1190,9 @@
       <c r="K3" t="s">
         <v>41</v>
       </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
       <c r="O3" t="s">
         <v>34</v>
       </c>
